--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,105 +398,204 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Apple iPhone 15 Pro</v>
+        <v>00862</v>
+      </c>
+      <c r="B3" t="str">
+        <v>862</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>iPad Pro 11''</v>
+        <v>00175</v>
+      </c>
+      <c r="B4" t="str">
+        <v>175</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Apple iPad Air</v>
+        <v>Apple iPhone 15 Pro</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Apple Watch Series 9</v>
+        <v>00675</v>
+      </c>
+      <c r="B6" t="str">
+        <v>675</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>PlayStation 5 Slim 主機</v>
+        <v>iPad Pro 11''</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Dyson Supersonic™ 風筒 HD15</v>
+        <v>00843</v>
+      </c>
+      <c r="B8" t="str">
+        <v>843</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>半島酒店現金禮品卡</v>
+        <v>Apple iPad Air</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Disney Ticket x 2+2  ANNUAL PASS</v>
+        <v>00945</v>
+      </c>
+      <c r="B10" t="str">
+        <v>945</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PHILIPS 飛利浦AMF220/35 三合一風扇暖風空氣清新機</v>
+        <v>Apple Watch Series 9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>SONY 索尼WH-1000XM5 耳機</v>
+        <v>00466</v>
+      </c>
+      <c r="B12" t="str">
+        <v>466</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Marshall Kilburn II Portable Bluetooth Speaker</v>
+        <v>PlayStation 5 Slim 主機</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>DYSON手提式吸塵機</v>
+        <v>00294</v>
+      </c>
+      <c r="B14" t="str">
+        <v>294</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Oral-BiO Series 9 充電電動牙刷</v>
+        <v>Dyson Supersonic™ 風筒 HD15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Nintendo 任天堂Switch</v>
+        <v>00812</v>
+      </c>
+      <c r="B16" t="str">
+        <v>812</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Apple AirPods Pro</v>
+        <v>半島酒店現金禮品卡</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>ROSEWOOD 禮品卡</v>
+        <v>00452</v>
+      </c>
+      <c r="B18" t="str">
+        <v>452</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Bruno多功能電熱鍋</v>
+        <v>Disney Ticket x 2+2  ANNUAL PASS</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>TanitaBC-402 智能體組成磅</v>
+        <v>00949</v>
+      </c>
+      <c r="B20" t="str">
+        <v>949</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>SONY SoundBar</v>
+        <v>00832</v>
+      </c>
+      <c r="B21" t="str">
+        <v>832</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>00127</v>
-      </c>
-      <c r="B22">
-        <v>127</v>
+        <v>00413</v>
+      </c>
+      <c r="B22" t="str">
+        <v>413</v>
       </c>
       <c r="C22" t="str">
         <v>Hana-musubi</v>
@@ -507,43 +606,34 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>00747</v>
-      </c>
-      <c r="B23">
-        <v>747</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>PHILIPS 飛利浦AMF220/35 三合一風扇暖風空氣清新機</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>德國寶 移動浴室寶</v>
+        <v>00864</v>
+      </c>
+      <c r="B24" t="str">
+        <v>864</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>00170</v>
-      </c>
-      <c r="B25">
-        <v>170</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>SONY 索尼WH-1000XM5 耳機</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>00119</v>
-      </c>
-      <c r="B26">
-        <v>119</v>
+        <v>00932</v>
+      </c>
+      <c r="B26" t="str">
+        <v>932</v>
       </c>
       <c r="C26" t="str">
         <v>Hana-musubi</v>
@@ -554,15 +644,15 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Bruno手提蒸氣掛燙機</v>
+        <v>Marshall Kilburn II Portable Bluetooth Speaker</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>00536</v>
-      </c>
-      <c r="B28">
-        <v>536</v>
+        <v>00202</v>
+      </c>
+      <c r="B28" t="str">
+        <v>202</v>
       </c>
       <c r="C28" t="str">
         <v>Hana-musubi</v>
@@ -573,54 +663,72 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>00222</v>
-      </c>
-      <c r="B29">
-        <v>222</v>
-      </c>
-      <c r="C29" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>DYSON手提式吸塵機</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v xml:space="preserve"> 01 </v>
+        <v>00114</v>
+      </c>
+      <c r="B30" t="str">
+        <v>114</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>02</v>
+        <v>Oral-BiO Series 9 充電電動牙刷</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>03</v>
+        <v>00658</v>
+      </c>
+      <c r="B32" t="str">
+        <v>658</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>04</v>
+        <v>Nintendo 任天堂Switch</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>05</v>
+        <v>00478</v>
+      </c>
+      <c r="B34" t="str">
+        <v>478</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v xml:space="preserve">花膠鮑魚海味套裝 </v>
+        <v>Apple AirPods Pro</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>0090</v>
-      </c>
-      <c r="B36">
-        <v>90</v>
+        <v>00286</v>
+      </c>
+      <c r="B36" t="str">
+        <v>286</v>
       </c>
       <c r="C36" t="str">
         <v>Hana-musubi</v>
@@ -631,10 +739,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>0027</v>
-      </c>
-      <c r="B37">
-        <v>27</v>
+        <v>00100</v>
+      </c>
+      <c r="B37" t="str">
+        <v>100</v>
       </c>
       <c r="C37" t="str">
         <v>Hana-musubi</v>
@@ -645,24 +753,15 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>00305</v>
-      </c>
-      <c r="B38">
-        <v>305</v>
-      </c>
-      <c r="C38" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
+        <v>ROSEWOOD 禮品卡</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>00464</v>
-      </c>
-      <c r="B39">
-        <v>464</v>
+        <v>00450</v>
+      </c>
+      <c r="B39" t="str">
+        <v>450</v>
       </c>
       <c r="C39" t="str">
         <v>Hana-musubi</v>
@@ -673,10 +772,10 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>00868</v>
-      </c>
-      <c r="B40">
-        <v>868</v>
+        <v>00716</v>
+      </c>
+      <c r="B40" t="str">
+        <v>716</v>
       </c>
       <c r="C40" t="str">
         <v>Hana-musubi</v>
@@ -687,24 +786,15 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>0081</v>
-      </c>
-      <c r="B41">
-        <v>81</v>
-      </c>
-      <c r="C41" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>Bruno多功能電熱鍋</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>00128</v>
-      </c>
-      <c r="B42">
-        <v>128</v>
+        <v>00898</v>
+      </c>
+      <c r="B42" t="str">
+        <v>898</v>
       </c>
       <c r="C42" t="str">
         <v>Hana-musubi</v>
@@ -715,38 +805,29 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>001083</v>
-      </c>
-      <c r="B43">
-        <v>1083</v>
+        <v>00604</v>
+      </c>
+      <c r="B43" t="str">
+        <v>604</v>
       </c>
       <c r="C43" t="str">
-        <v>Guest</v>
+        <v>Hana-musubi</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>00723</v>
-      </c>
-      <c r="B44">
-        <v>723</v>
-      </c>
-      <c r="C44" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>TanitaBC-402 智能體組成磅</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>00733</v>
-      </c>
-      <c r="B45">
-        <v>733</v>
+        <v>00997</v>
+      </c>
+      <c r="B45" t="str">
+        <v>997</v>
       </c>
       <c r="C45" t="str">
         <v>Hana-musubi</v>
@@ -757,29 +838,29 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Citysuper coupon</v>
+        <v>00698</v>
+      </c>
+      <c r="B46" t="str">
+        <v>698</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>00343</v>
-      </c>
-      <c r="B47">
-        <v>343</v>
-      </c>
-      <c r="C47" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
+        <v>SONY SoundBar</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>00111</v>
-      </c>
-      <c r="B48">
-        <v>111</v>
+        <v>00555</v>
+      </c>
+      <c r="B48" t="str">
+        <v>555</v>
       </c>
       <c r="C48" t="str">
         <v>Hana-musubi</v>
@@ -790,10 +871,10 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>00101</v>
-      </c>
-      <c r="B49">
-        <v>101</v>
+        <v>00322</v>
+      </c>
+      <c r="B49" t="str">
+        <v>322</v>
       </c>
       <c r="C49" t="str">
         <v>Hana-musubi</v>
@@ -804,24 +885,15 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>00219</v>
-      </c>
-      <c r="B50">
-        <v>219</v>
-      </c>
-      <c r="C50" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>德國寶 移動浴室寶</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>00258</v>
-      </c>
-      <c r="B51">
-        <v>258</v>
+        <v>007</v>
+      </c>
+      <c r="B51" t="str">
+        <v>007</v>
       </c>
       <c r="C51" t="str">
         <v>Hana-musubi</v>
@@ -832,10 +904,10 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>00782</v>
-      </c>
-      <c r="B52">
-        <v>782</v>
+        <v>00908</v>
+      </c>
+      <c r="B52" t="str">
+        <v>908</v>
       </c>
       <c r="C52" t="str">
         <v>Hana-musubi</v>
@@ -846,24 +918,15 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>00667</v>
-      </c>
-      <c r="B53">
-        <v>667</v>
-      </c>
-      <c r="C53" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+        <v>Bruno手提蒸氣掛燙機</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>00554</v>
-      </c>
-      <c r="B54">
-        <v>554</v>
+        <v>00940</v>
+      </c>
+      <c r="B54" t="str">
+        <v>940</v>
       </c>
       <c r="C54" t="str">
         <v>Hana-musubi</v>
@@ -874,10 +937,10 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>00188</v>
-      </c>
-      <c r="B55">
-        <v>188</v>
+        <v>00129</v>
+      </c>
+      <c r="B55" t="str">
+        <v>129</v>
       </c>
       <c r="C55" t="str">
         <v>Hana-musubi</v>
@@ -888,29 +951,29 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>001028</v>
-      </c>
-      <c r="B56">
-        <v>1028</v>
-      </c>
-      <c r="C56" t="str">
-        <v>Guest</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
+        <v xml:space="preserve"> 01 </v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>DONKI coupon</v>
+        <v>0043</v>
+      </c>
+      <c r="B57" t="str">
+        <v>043</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>00777</v>
-      </c>
-      <c r="B58">
-        <v>777</v>
+        <v>00792</v>
+      </c>
+      <c r="B58" t="str">
+        <v>792</v>
       </c>
       <c r="C58" t="str">
         <v>Hana-musubi</v>
@@ -921,24 +984,15 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>00280</v>
-      </c>
-      <c r="B59">
-        <v>280</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
+        <v>02</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>00770</v>
-      </c>
-      <c r="B60">
-        <v>770</v>
+        <v>00847</v>
+      </c>
+      <c r="B60" t="str">
+        <v>847</v>
       </c>
       <c r="C60" t="str">
         <v>Hana-musubi</v>
@@ -949,10 +1003,10 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>00351</v>
-      </c>
-      <c r="B61">
-        <v>351</v>
+        <v>00641</v>
+      </c>
+      <c r="B61" t="str">
+        <v>641</v>
       </c>
       <c r="C61" t="str">
         <v>Hana-musubi</v>
@@ -963,24 +1017,15 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>0071</v>
-      </c>
-      <c r="B62">
-        <v>71</v>
-      </c>
-      <c r="C62" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
+        <v>03</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>00240</v>
-      </c>
-      <c r="B63">
-        <v>240</v>
+        <v>00919</v>
+      </c>
+      <c r="B63" t="str">
+        <v>919</v>
       </c>
       <c r="C63" t="str">
         <v>Hana-musubi</v>
@@ -991,24 +1036,15 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>00901</v>
-      </c>
-      <c r="B64">
-        <v>901</v>
-      </c>
-      <c r="C64" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
+        <v>04</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>00259</v>
-      </c>
-      <c r="B65">
-        <v>259</v>
+        <v>00225</v>
+      </c>
+      <c r="B65" t="str">
+        <v>225</v>
       </c>
       <c r="C65" t="str">
         <v>Hana-musubi</v>
@@ -1019,24 +1055,15 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>00149</v>
-      </c>
-      <c r="B66">
-        <v>149</v>
-      </c>
-      <c r="C66" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
+        <v>05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>00353</v>
-      </c>
-      <c r="B67">
-        <v>353</v>
+        <v>00213</v>
+      </c>
+      <c r="B67" t="str">
+        <v>213</v>
       </c>
       <c r="C67" t="str">
         <v>Hana-musubi</v>
@@ -1047,24 +1074,15 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>00838</v>
-      </c>
-      <c r="B68">
-        <v>838</v>
-      </c>
-      <c r="C68" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
+        <v xml:space="preserve">花膠鮑魚海味套裝 </v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>00546</v>
-      </c>
-      <c r="B69">
-        <v>546</v>
+        <v>00642</v>
+      </c>
+      <c r="B69" t="str">
+        <v>642</v>
       </c>
       <c r="C69" t="str">
         <v>Hana-musubi</v>
@@ -1075,10 +1093,10 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>00743</v>
-      </c>
-      <c r="B70">
-        <v>743</v>
+        <v>00164</v>
+      </c>
+      <c r="B70" t="str">
+        <v>164</v>
       </c>
       <c r="C70" t="str">
         <v>Hana-musubi</v>
@@ -1089,10 +1107,10 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>00168</v>
-      </c>
-      <c r="B71">
-        <v>168</v>
+        <v>00582</v>
+      </c>
+      <c r="B71" t="str">
+        <v>582</v>
       </c>
       <c r="C71" t="str">
         <v>Hana-musubi</v>
@@ -1103,10 +1121,10 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>00856</v>
-      </c>
-      <c r="B72">
-        <v>856</v>
+        <v>00728</v>
+      </c>
+      <c r="B72" t="str">
+        <v>728</v>
       </c>
       <c r="C72" t="str">
         <v>Hana-musubi</v>
@@ -1117,10 +1135,10 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>00281</v>
-      </c>
-      <c r="B73">
-        <v>281</v>
+        <v>00348</v>
+      </c>
+      <c r="B73" t="str">
+        <v>348</v>
       </c>
       <c r="C73" t="str">
         <v>Hana-musubi</v>
@@ -1131,10 +1149,10 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>00896</v>
-      </c>
-      <c r="B74">
-        <v>896</v>
+        <v>00375</v>
+      </c>
+      <c r="B74" t="str">
+        <v>375</v>
       </c>
       <c r="C74" t="str">
         <v>Hana-musubi</v>
@@ -1145,10 +1163,10 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>0055</v>
-      </c>
-      <c r="B75">
-        <v>55</v>
+        <v>00110</v>
+      </c>
+      <c r="B75" t="str">
+        <v>110</v>
       </c>
       <c r="C75" t="str">
         <v>Hana-musubi</v>
@@ -1159,10 +1177,10 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>00910</v>
-      </c>
-      <c r="B76">
-        <v>910</v>
+        <v>00714</v>
+      </c>
+      <c r="B76" t="str">
+        <v>714</v>
       </c>
       <c r="C76" t="str">
         <v>Hana-musubi</v>
@@ -1173,10 +1191,10 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>00211</v>
-      </c>
-      <c r="B77">
-        <v>211</v>
+        <v>00489</v>
+      </c>
+      <c r="B77" t="str">
+        <v>489</v>
       </c>
       <c r="C77" t="str">
         <v>Hana-musubi</v>
@@ -1187,29 +1205,29 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Venchi Coupon</v>
+        <v>001076</v>
+      </c>
+      <c r="B78">
+        <v>1076</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>00849</v>
-      </c>
-      <c r="B79">
-        <v>849</v>
-      </c>
-      <c r="C79" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
+        <v>Citysuper coupon</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>00197</v>
-      </c>
-      <c r="B80">
-        <v>197</v>
+        <v>00169</v>
+      </c>
+      <c r="B80" t="str">
+        <v>169</v>
       </c>
       <c r="C80" t="str">
         <v>Hana-musubi</v>
@@ -1220,10 +1238,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>00409</v>
-      </c>
-      <c r="B81">
-        <v>409</v>
+        <v>0049</v>
+      </c>
+      <c r="B81" t="str">
+        <v>049</v>
       </c>
       <c r="C81" t="str">
         <v>Hana-musubi</v>
@@ -1234,24 +1252,24 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>00631</v>
+        <v>001022</v>
       </c>
       <c r="B82">
-        <v>631</v>
+        <v>1022</v>
       </c>
       <c r="C82" t="str">
-        <v>Hana-musubi</v>
+        <v>Guest</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>00981</v>
-      </c>
-      <c r="B83">
-        <v>981</v>
+        <v>00380</v>
+      </c>
+      <c r="B83" t="str">
+        <v>380</v>
       </c>
       <c r="C83" t="str">
         <v>Hana-musubi</v>
@@ -1262,10 +1280,10 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>00376</v>
-      </c>
-      <c r="B84">
-        <v>376</v>
+        <v>00859</v>
+      </c>
+      <c r="B84" t="str">
+        <v>859</v>
       </c>
       <c r="C84" t="str">
         <v>Hana-musubi</v>
@@ -1276,10 +1294,10 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>00356</v>
-      </c>
-      <c r="B85">
-        <v>356</v>
+        <v>00660</v>
+      </c>
+      <c r="B85" t="str">
+        <v>660</v>
       </c>
       <c r="C85" t="str">
         <v>Hana-musubi</v>
@@ -1290,10 +1308,10 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>00233</v>
-      </c>
-      <c r="B86">
-        <v>233</v>
+        <v>00741</v>
+      </c>
+      <c r="B86" t="str">
+        <v>741</v>
       </c>
       <c r="C86" t="str">
         <v>Hana-musubi</v>
@@ -1304,10 +1322,10 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>00391</v>
-      </c>
-      <c r="B87">
-        <v>391</v>
+        <v>00253</v>
+      </c>
+      <c r="B87" t="str">
+        <v>253</v>
       </c>
       <c r="C87" t="str">
         <v>Hana-musubi</v>
@@ -1318,10 +1336,10 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>0069</v>
-      </c>
-      <c r="B88">
-        <v>69</v>
+        <v>00393</v>
+      </c>
+      <c r="B88" t="str">
+        <v>393</v>
       </c>
       <c r="C88" t="str">
         <v>Hana-musubi</v>
@@ -1332,10 +1350,10 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>00642</v>
-      </c>
-      <c r="B89">
-        <v>642</v>
+        <v>00296</v>
+      </c>
+      <c r="B89" t="str">
+        <v>296</v>
       </c>
       <c r="C89" t="str">
         <v>Hana-musubi</v>
@@ -1346,24 +1364,15 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>00320</v>
-      </c>
-      <c r="B90">
-        <v>320</v>
-      </c>
-      <c r="C90" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
+        <v>DONKI coupon</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>00989</v>
-      </c>
-      <c r="B91">
-        <v>989</v>
+        <v>00579</v>
+      </c>
+      <c r="B91" t="str">
+        <v>579</v>
       </c>
       <c r="C91" t="str">
         <v>Hana-musubi</v>
@@ -1374,24 +1383,24 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>001040</v>
-      </c>
-      <c r="B92">
-        <v>1040</v>
+        <v>00160</v>
+      </c>
+      <c r="B92" t="str">
+        <v>160</v>
       </c>
       <c r="C92" t="str">
-        <v>Guest</v>
+        <v>Hana-musubi</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>00129</v>
-      </c>
-      <c r="B93">
-        <v>129</v>
+        <v>00287</v>
+      </c>
+      <c r="B93" t="str">
+        <v>287</v>
       </c>
       <c r="C93" t="str">
         <v>Hana-musubi</v>
@@ -1402,10 +1411,10 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>00612</v>
-      </c>
-      <c r="B94">
-        <v>612</v>
+        <v>00351</v>
+      </c>
+      <c r="B94" t="str">
+        <v>351</v>
       </c>
       <c r="C94" t="str">
         <v>Hana-musubi</v>
@@ -1416,10 +1425,10 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>00630</v>
-      </c>
-      <c r="B95">
-        <v>630</v>
+        <v>00455</v>
+      </c>
+      <c r="B95" t="str">
+        <v>455</v>
       </c>
       <c r="C95" t="str">
         <v>Hana-musubi</v>
@@ -1430,10 +1439,10 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>0097</v>
-      </c>
-      <c r="B96">
-        <v>97</v>
+        <v>00124</v>
+      </c>
+      <c r="B96" t="str">
+        <v>124</v>
       </c>
       <c r="C96" t="str">
         <v>Hana-musubi</v>
@@ -1444,10 +1453,10 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>00725</v>
-      </c>
-      <c r="B97">
-        <v>725</v>
+        <v>00677</v>
+      </c>
+      <c r="B97" t="str">
+        <v>677</v>
       </c>
       <c r="C97" t="str">
         <v>Hana-musubi</v>
@@ -1458,10 +1467,10 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>00574</v>
-      </c>
-      <c r="B98">
-        <v>574</v>
+        <v>00182</v>
+      </c>
+      <c r="B98" t="str">
+        <v>182</v>
       </c>
       <c r="C98" t="str">
         <v>Hana-musubi</v>
@@ -1472,29 +1481,38 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v xml:space="preserve">百佳coupon </v>
+        <v>00685</v>
+      </c>
+      <c r="B99" t="str">
+        <v>685</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>00617</v>
+        <v>001040</v>
       </c>
       <c r="B100">
-        <v>617</v>
+        <v>1040</v>
       </c>
       <c r="C100" t="str">
-        <v>Hana-musubi</v>
+        <v>Guest</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>00815</v>
-      </c>
-      <c r="B101">
-        <v>815</v>
+        <v>00646</v>
+      </c>
+      <c r="B101" t="str">
+        <v>646</v>
       </c>
       <c r="C101" t="str">
         <v>Hana-musubi</v>
@@ -1505,10 +1523,10 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>00172</v>
-      </c>
-      <c r="B102">
-        <v>172</v>
+        <v>00710</v>
+      </c>
+      <c r="B102" t="str">
+        <v>710</v>
       </c>
       <c r="C102" t="str">
         <v>Hana-musubi</v>
@@ -1519,10 +1537,10 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>00344</v>
-      </c>
-      <c r="B103">
-        <v>344</v>
+        <v>00952</v>
+      </c>
+      <c r="B103" t="str">
+        <v>952</v>
       </c>
       <c r="C103" t="str">
         <v>Hana-musubi</v>
@@ -1533,10 +1551,10 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>00465</v>
-      </c>
-      <c r="B104">
-        <v>465</v>
+        <v>00410</v>
+      </c>
+      <c r="B104" t="str">
+        <v>410</v>
       </c>
       <c r="C104" t="str">
         <v>Hana-musubi</v>
@@ -1547,10 +1565,10 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>00501</v>
-      </c>
-      <c r="B105">
-        <v>501</v>
+        <v>00828</v>
+      </c>
+      <c r="B105" t="str">
+        <v>828</v>
       </c>
       <c r="C105" t="str">
         <v>Hana-musubi</v>
@@ -1561,10 +1579,10 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>00347</v>
-      </c>
-      <c r="B106">
-        <v>347</v>
+        <v>00811</v>
+      </c>
+      <c r="B106" t="str">
+        <v>811</v>
       </c>
       <c r="C106" t="str">
         <v>Hana-musubi</v>
@@ -1575,10 +1593,10 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>00473</v>
-      </c>
-      <c r="B107">
-        <v>473</v>
+        <v>00720</v>
+      </c>
+      <c r="B107" t="str">
+        <v>720</v>
       </c>
       <c r="C107" t="str">
         <v>Hana-musubi</v>
@@ -1589,10 +1607,10 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>00968</v>
-      </c>
-      <c r="B108">
-        <v>968</v>
+        <v>00743</v>
+      </c>
+      <c r="B108" t="str">
+        <v>743</v>
       </c>
       <c r="C108" t="str">
         <v>Hana-musubi</v>
@@ -1603,10 +1621,10 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>0035</v>
-      </c>
-      <c r="B109">
-        <v>35</v>
+        <v>00946</v>
+      </c>
+      <c r="B109" t="str">
+        <v>946</v>
       </c>
       <c r="C109" t="str">
         <v>Hana-musubi</v>
@@ -1617,10 +1635,10 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>00668</v>
-      </c>
-      <c r="B110">
-        <v>668</v>
+        <v>008</v>
+      </c>
+      <c r="B110" t="str">
+        <v>008</v>
       </c>
       <c r="C110" t="str">
         <v>Hana-musubi</v>
@@ -1631,24 +1649,15 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>00597</v>
-      </c>
-      <c r="B111">
-        <v>597</v>
-      </c>
-      <c r="C111" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
+        <v>Venchi Coupon</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>00866</v>
-      </c>
-      <c r="B112">
-        <v>866</v>
+        <v>0020</v>
+      </c>
+      <c r="B112" t="str">
+        <v>020</v>
       </c>
       <c r="C112" t="str">
         <v>Hana-musubi</v>
@@ -1659,10 +1668,10 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>00301</v>
-      </c>
-      <c r="B113">
-        <v>301</v>
+        <v>00806</v>
+      </c>
+      <c r="B113" t="str">
+        <v>806</v>
       </c>
       <c r="C113" t="str">
         <v>Hana-musubi</v>
@@ -1673,10 +1682,10 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>0091</v>
-      </c>
-      <c r="B114">
-        <v>91</v>
+        <v>00987</v>
+      </c>
+      <c r="B114" t="str">
+        <v>987</v>
       </c>
       <c r="C114" t="str">
         <v>Hana-musubi</v>
@@ -1687,10 +1696,10 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>00892</v>
-      </c>
-      <c r="B115">
-        <v>892</v>
+        <v>00167</v>
+      </c>
+      <c r="B115" t="str">
+        <v>167</v>
       </c>
       <c r="C115" t="str">
         <v>Hana-musubi</v>
@@ -1701,10 +1710,10 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>00912</v>
-      </c>
-      <c r="B116">
-        <v>912</v>
+        <v>00215</v>
+      </c>
+      <c r="B116" t="str">
+        <v>215</v>
       </c>
       <c r="C116" t="str">
         <v>Hana-musubi</v>
@@ -1715,38 +1724,38 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>001036</v>
-      </c>
-      <c r="B117">
-        <v>1036</v>
+        <v>00285</v>
+      </c>
+      <c r="B117" t="str">
+        <v>285</v>
       </c>
       <c r="C117" t="str">
-        <v>Guest</v>
+        <v>Hana-musubi</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>00402</v>
+        <v>001042</v>
       </c>
       <c r="B118">
-        <v>402</v>
+        <v>1042</v>
       </c>
       <c r="C118" t="str">
-        <v>Hana-musubi</v>
+        <v>Guest</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>00525</v>
-      </c>
-      <c r="B119">
-        <v>525</v>
+        <v>0063</v>
+      </c>
+      <c r="B119" t="str">
+        <v>063</v>
       </c>
       <c r="C119" t="str">
         <v>Hana-musubi</v>
@@ -1757,15 +1766,24 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Lady M coupon</v>
+        <v>00343</v>
+      </c>
+      <c r="B120" t="str">
+        <v>343</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>00954</v>
-      </c>
-      <c r="B121">
-        <v>954</v>
+        <v>00648</v>
+      </c>
+      <c r="B121" t="str">
+        <v>648</v>
       </c>
       <c r="C121" t="str">
         <v>Hana-musubi</v>
@@ -1776,10 +1794,10 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>00898</v>
-      </c>
-      <c r="B122">
-        <v>898</v>
+        <v>00819</v>
+      </c>
+      <c r="B122" t="str">
+        <v>819</v>
       </c>
       <c r="C122" t="str">
         <v>Hana-musubi</v>
@@ -1790,24 +1808,24 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>00746</v>
+        <v>001013</v>
       </c>
       <c r="B123">
-        <v>746</v>
+        <v>1013</v>
       </c>
       <c r="C123" t="str">
-        <v>Hana-musubi</v>
+        <v>Guest</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>00398</v>
-      </c>
-      <c r="B124">
-        <v>398</v>
+        <v>00265</v>
+      </c>
+      <c r="B124" t="str">
+        <v>265</v>
       </c>
       <c r="C124" t="str">
         <v>Hana-musubi</v>
@@ -1818,10 +1836,10 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>00960</v>
-      </c>
-      <c r="B125">
-        <v>960</v>
+        <v>00403</v>
+      </c>
+      <c r="B125" t="str">
+        <v>403</v>
       </c>
       <c r="C125" t="str">
         <v>Hana-musubi</v>
@@ -1832,24 +1850,24 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>00419</v>
+        <v>001034</v>
       </c>
       <c r="B126">
-        <v>419</v>
+        <v>1034</v>
       </c>
       <c r="C126" t="str">
-        <v>Hana-musubi</v>
+        <v>Guest</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>00842</v>
-      </c>
-      <c r="B127">
-        <v>842</v>
+        <v>00891</v>
+      </c>
+      <c r="B127" t="str">
+        <v>891</v>
       </c>
       <c r="C127" t="str">
         <v>Hana-musubi</v>
@@ -1860,10 +1878,10 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>00481</v>
-      </c>
-      <c r="B128">
-        <v>481</v>
+        <v>00903</v>
+      </c>
+      <c r="B128" t="str">
+        <v>903</v>
       </c>
       <c r="C128" t="str">
         <v>Hana-musubi</v>
@@ -1874,10 +1892,10 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>00338</v>
-      </c>
-      <c r="B129">
-        <v>338</v>
+        <v>00553</v>
+      </c>
+      <c r="B129" t="str">
+        <v>553</v>
       </c>
       <c r="C129" t="str">
         <v>Hana-musubi</v>
@@ -1888,10 +1906,10 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>00560</v>
-      </c>
-      <c r="B130">
-        <v>560</v>
+        <v>00708</v>
+      </c>
+      <c r="B130" t="str">
+        <v>708</v>
       </c>
       <c r="C130" t="str">
         <v>Hana-musubi</v>
@@ -1902,10 +1920,10 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>00768</v>
-      </c>
-      <c r="B131">
-        <v>768</v>
+        <v>00314</v>
+      </c>
+      <c r="B131" t="str">
+        <v>314</v>
       </c>
       <c r="C131" t="str">
         <v>Hana-musubi</v>
@@ -1916,24 +1934,15 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>00744</v>
-      </c>
-      <c r="B132">
-        <v>744</v>
-      </c>
-      <c r="C132" t="str">
-        <v>Hana-musubi</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
+        <v xml:space="preserve">百佳coupon </v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>00265</v>
-      </c>
-      <c r="B133">
-        <v>265</v>
+        <v>00589</v>
+      </c>
+      <c r="B133" t="str">
+        <v>589</v>
       </c>
       <c r="C133" t="str">
         <v>Hana-musubi</v>
@@ -1944,10 +1953,10 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>00994</v>
-      </c>
-      <c r="B134">
-        <v>994</v>
+        <v>00356</v>
+      </c>
+      <c r="B134" t="str">
+        <v>356</v>
       </c>
       <c r="C134" t="str">
         <v>Hana-musubi</v>
@@ -1958,10 +1967,10 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>00677</v>
-      </c>
-      <c r="B135">
-        <v>677</v>
+        <v>00666</v>
+      </c>
+      <c r="B135" t="str">
+        <v>666</v>
       </c>
       <c r="C135" t="str">
         <v>Hana-musubi</v>
@@ -1972,24 +1981,24 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>001048</v>
-      </c>
-      <c r="B136">
-        <v>1048</v>
+        <v>00453</v>
+      </c>
+      <c r="B136" t="str">
+        <v>453</v>
       </c>
       <c r="C136" t="str">
-        <v>Guest</v>
+        <v>Hana-musubi</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>00629</v>
-      </c>
-      <c r="B137">
-        <v>629</v>
+        <v>00981</v>
+      </c>
+      <c r="B137" t="str">
+        <v>981</v>
       </c>
       <c r="C137" t="str">
         <v>Hana-musubi</v>
@@ -2000,10 +2009,10 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>00378</v>
-      </c>
-      <c r="B138">
-        <v>378</v>
+        <v>00203</v>
+      </c>
+      <c r="B138" t="str">
+        <v>203</v>
       </c>
       <c r="C138" t="str">
         <v>Hana-musubi</v>
@@ -2014,10 +2023,10 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>00370</v>
-      </c>
-      <c r="B139">
-        <v>370</v>
+        <v>00398</v>
+      </c>
+      <c r="B139" t="str">
+        <v>398</v>
       </c>
       <c r="C139" t="str">
         <v>Hana-musubi</v>
@@ -2028,21 +2037,474 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>0047</v>
-      </c>
-      <c r="B140">
-        <v>47</v>
+        <v>00775</v>
+      </c>
+      <c r="B140" t="str">
+        <v>775</v>
       </c>
       <c r="C140" t="str">
         <v>Hana-musubi</v>
       </c>
       <c r="D140">
         <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>00186</v>
+      </c>
+      <c r="B141" t="str">
+        <v>186</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>00794</v>
+      </c>
+      <c r="B142" t="str">
+        <v>794</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>00961</v>
+      </c>
+      <c r="B143" t="str">
+        <v>961</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>00273</v>
+      </c>
+      <c r="B144" t="str">
+        <v>273</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>001035</v>
+      </c>
+      <c r="B145">
+        <v>1035</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>00526</v>
+      </c>
+      <c r="B146" t="str">
+        <v>526</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>00973</v>
+      </c>
+      <c r="B147" t="str">
+        <v>973</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>00374</v>
+      </c>
+      <c r="B148" t="str">
+        <v>374</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>00687</v>
+      </c>
+      <c r="B149" t="str">
+        <v>687</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>00883</v>
+      </c>
+      <c r="B150" t="str">
+        <v>883</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>00454</v>
+      </c>
+      <c r="B151" t="str">
+        <v>454</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>00145</v>
+      </c>
+      <c r="B152" t="str">
+        <v>145</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Lady M coupon</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>00435</v>
+      </c>
+      <c r="B154" t="str">
+        <v>435</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>00803</v>
+      </c>
+      <c r="B155" t="str">
+        <v>803</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>00608</v>
+      </c>
+      <c r="B156" t="str">
+        <v>608</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>00672</v>
+      </c>
+      <c r="B157" t="str">
+        <v>672</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>00514</v>
+      </c>
+      <c r="B158" t="str">
+        <v>514</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>00240</v>
+      </c>
+      <c r="B159" t="str">
+        <v>240</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>001043</v>
+      </c>
+      <c r="B160">
+        <v>1043</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>00396</v>
+      </c>
+      <c r="B161" t="str">
+        <v>396</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>00696</v>
+      </c>
+      <c r="B162" t="str">
+        <v>696</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>00140</v>
+      </c>
+      <c r="B163" t="str">
+        <v>140</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>00474</v>
+      </c>
+      <c r="B164" t="str">
+        <v>474</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>00706</v>
+      </c>
+      <c r="B165" t="str">
+        <v>706</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>00936</v>
+      </c>
+      <c r="B166" t="str">
+        <v>936</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>00363</v>
+      </c>
+      <c r="B167" t="str">
+        <v>363</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>00154</v>
+      </c>
+      <c r="B168" t="str">
+        <v>154</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>00793</v>
+      </c>
+      <c r="B169" t="str">
+        <v>793</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>00323</v>
+      </c>
+      <c r="B170" t="str">
+        <v>323</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>00530</v>
+      </c>
+      <c r="B171" t="str">
+        <v>530</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>00354</v>
+      </c>
+      <c r="B172" t="str">
+        <v>354</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Hana-musubi</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>001004</v>
+      </c>
+      <c r="B173">
+        <v>1004</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Guest</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D140"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D173"/>
   </ignoredErrors>
 </worksheet>
 </file>